--- a/이재석/3colors wbs.xlsx
+++ b/이재석/3colors wbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="795" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>3 Colors WBS</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -253,6 +253,22 @@
   </si>
   <si>
     <t>3.4.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린샷 찍기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정윤재</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -348,9 +364,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -359,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -382,6 +395,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30"/>
@@ -689,34 +705,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="6" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
+    <col min="5" max="6" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -739,30 +755,30 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18">
         <v>42687</v>
       </c>
-      <c r="F3" s="19">
-        <v>42690</v>
-      </c>
-      <c r="G3" s="18" t="str">
+      <c r="F3" s="18">
+        <v>42694</v>
+      </c>
+      <c r="G3" s="17" t="str">
         <f ca="1">IF(F3&gt;NOW(),"진행 중","완료")</f>
         <v>완료</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f>AVERAGE(H4:H5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" t="s">
@@ -771,22 +787,22 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>42687</v>
       </c>
-      <c r="F4" s="7">
-        <v>42688</v>
+      <c r="F4" s="6">
+        <v>42690</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G28" ca="1" si="0">IF(F4&gt;NOW(),"진행 중","완료")</f>
         <v>완료</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1.2</v>
       </c>
       <c r="C5" t="s">
@@ -795,45 +811,45 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7">
-        <v>42688</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="6">
         <v>42690</v>
       </c>
+      <c r="F5" s="6">
+        <v>42694</v>
+      </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19">
-        <v>42690</v>
-      </c>
-      <c r="F6" s="19">
-        <v>42695</v>
-      </c>
-      <c r="G6" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="D6" s="17"/>
+      <c r="E6" s="18">
+        <v>42694</v>
+      </c>
+      <c r="F6" s="18">
+        <v>42704</v>
+      </c>
+      <c r="G6" s="17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="H6" s="19">
         <f>AVERAGE(H7:H9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2.1</v>
       </c>
       <c r="C7" t="s">
@@ -842,22 +858,22 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7">
-        <v>42690</v>
-      </c>
-      <c r="F7" s="7">
-        <v>42692</v>
+      <c r="E7" s="6">
+        <v>42694</v>
+      </c>
+      <c r="F7" s="6">
+        <v>42699</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="C8" t="s">
@@ -866,22 +882,22 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7">
-        <v>42692</v>
-      </c>
-      <c r="F8" s="7">
-        <v>42693</v>
+      <c r="E8" s="6">
+        <v>42700</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42701</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="C9" t="s">
@@ -890,45 +906,45 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7">
-        <v>42693</v>
-      </c>
-      <c r="F9" s="7">
-        <v>42695</v>
+      <c r="E9" s="6">
+        <v>42701</v>
+      </c>
+      <c r="F9" s="6">
+        <v>42704</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19">
-        <v>42695</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18">
+        <v>42705</v>
+      </c>
+      <c r="F10" s="18">
         <v>42728</v>
       </c>
-      <c r="G10" s="18" t="str">
+      <c r="G10" s="17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>진행 중</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>AVERAGE(H11:H13,H15:H19,H21:H23,H25:H28)</f>
-        <v>0.8666666666666667</v>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>3.1</v>
       </c>
       <c r="C11" t="s">
@@ -937,22 +953,22 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="7">
-        <v>42704</v>
-      </c>
-      <c r="F11" s="7">
-        <v>42716</v>
+      <c r="E11" s="6">
+        <v>42705</v>
+      </c>
+      <c r="F11" s="6">
+        <v>42707</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3.2</v>
       </c>
       <c r="C12" t="s">
@@ -961,22 +977,22 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="7">
-        <v>42695</v>
-      </c>
-      <c r="F12" s="7">
-        <v>42699</v>
+      <c r="E12" s="6">
+        <v>42706</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42714</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>3.3</v>
       </c>
       <c r="C13" t="s">
@@ -985,45 +1001,45 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7">
-        <v>42699</v>
-      </c>
-      <c r="F13" s="7">
-        <v>42704</v>
+      <c r="E13" s="6">
+        <v>42714</v>
+      </c>
+      <c r="F13" s="6">
+        <v>42722</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>3.4</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
-        <v>42695</v>
-      </c>
-      <c r="F14" s="14">
-        <v>42728</v>
-      </c>
-      <c r="G14" s="13" t="str">
+      <c r="D14" s="12"/>
+      <c r="E14" s="13">
+        <v>42705</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42726</v>
+      </c>
+      <c r="G14" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>진행 중</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f>AVERAGE(H21:H23,H15:H19)</f>
-        <v>0.77500000000000002</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
@@ -1032,22 +1048,22 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7">
-        <v>42704</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="6">
+        <v>42705</v>
+      </c>
+      <c r="F15" s="6">
         <v>42709</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
@@ -1056,22 +1072,22 @@
       <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7">
-        <v>42709</v>
-      </c>
-      <c r="F16" s="7">
-        <v>42716</v>
+      <c r="E16" s="6">
+        <v>42724</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42726</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
+        <v>진행 중</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
@@ -1080,22 +1096,22 @@
       <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="7">
-        <v>42705</v>
-      </c>
-      <c r="F17" s="7">
-        <v>42711</v>
+      <c r="E17" s="6">
+        <v>42722</v>
+      </c>
+      <c r="F17" s="6">
+        <v>42723</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="s">
@@ -1104,22 +1120,22 @@
       <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="7">
-        <v>42716</v>
-      </c>
-      <c r="F18" s="7">
-        <v>42720</v>
+      <c r="E18" s="6">
+        <v>42719</v>
+      </c>
+      <c r="F18" s="6">
+        <v>42723</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
@@ -1128,45 +1144,45 @@
       <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>42720</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>42725</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>진행 중</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
         <v>42721</v>
       </c>
-      <c r="F20" s="10">
-        <v>42728</v>
-      </c>
-      <c r="G20" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>진행 중</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="F20" s="9">
+        <v>42723</v>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="H20" s="10">
         <f>AVERAGE(H21:H22)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
@@ -1175,22 +1191,22 @@
       <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>42721</v>
       </c>
-      <c r="F21" s="7">
-        <v>42723</v>
+      <c r="F21" s="6">
+        <v>42722</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
@@ -1199,22 +1215,22 @@
       <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="7">
-        <v>42724</v>
-      </c>
-      <c r="F22" s="7">
-        <v>42725</v>
+      <c r="E22" s="6">
+        <v>42722</v>
+      </c>
+      <c r="F22" s="6">
+        <v>42723</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>진행 중</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.5</v>
+        <v>완료</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
@@ -1223,45 +1239,45 @@
       <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="7">
-        <v>42712</v>
-      </c>
-      <c r="F23" s="7">
-        <v>42728</v>
+      <c r="E23" s="6">
+        <v>42724</v>
+      </c>
+      <c r="F23" s="6">
+        <v>42726</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>진행 중</v>
       </c>
-      <c r="H23" s="8">
-        <v>0.2</v>
+      <c r="H23" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>3.5</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14">
+      <c r="D24" s="12"/>
+      <c r="E24" s="13">
         <v>42695</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>42724</v>
       </c>
-      <c r="G24" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="G24" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="H24" s="14">
         <f>AVERAGE(H25:H28)</f>
         <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
@@ -1270,22 +1286,22 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>42695</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>42696</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
@@ -1294,22 +1310,22 @@
       <c r="D26" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>42697</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>42704</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
@@ -1318,22 +1334,22 @@
       <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>42695</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>42714</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>완료</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
@@ -1342,19 +1358,93 @@
       <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>42699</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
+        <v>42726</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>진행 중</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <v>4</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18">
+        <v>42724</v>
+      </c>
+      <c r="F29" s="18">
+        <v>42726</v>
+      </c>
+      <c r="G29" s="17" t="str">
+        <f t="shared" ref="G29:G32" ca="1" si="1">IF(F29&gt;NOW(),"진행 중","완료")</f>
+        <v>진행 중</v>
+      </c>
+      <c r="H29" s="19">
+        <f>AVERAGE(H30:H31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6">
+        <v>42724</v>
+      </c>
+      <c r="F30" s="6">
         <v>42725</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G30" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>진행 중</v>
       </c>
-      <c r="H28" s="8">
-        <v>0.8</v>
-      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="6">
+        <v>42725</v>
+      </c>
+      <c r="F31" s="6">
+        <v>42726</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>진행 중</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
